--- a/bots/crawl_ch/output/clothes_2022-08-30.xlsx
+++ b/bots/crawl_ch/output/clothes_2022-08-30.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -602,75 +602,95 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6075745006</t>
+          <t>6866483</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  9.5</t>
+          <t>Tena Silhouette waschbarer Inko-Slip M</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-95/p/6075745006</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/tena-silhouette-waschbarer-inko-slip-m/p/6866483</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Tena</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>34.95/1ST</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  9.5 5.95 Schweizer Franken</t>
+          <t>Tena Silhouette waschbarer Inko-Slip M 34.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3305484008</t>
+          <t>6075745006</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Naturaline Damen Slip weiss M</t>
+          <t>Avela Strumpfhose Madame Hasel  9.5</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-slip-weiss-m/p/3305484008</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-95/p/6075745006</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -680,12 +700,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Avela</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -694,75 +714,55 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Naturaline Damen Slip weiss M 30% Aktion 5.55 Schweizer Franken statt 7.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Hasel  9.5 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6866483</t>
+          <t>3305484008</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tena Silhouette waschbarer Inko-Slip M</t>
+          <t>Naturaline Damen Slip weiss M</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/tena-silhouette-waschbarer-inko-slip-m/p/6866483</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-slip-weiss-m/p/3305484008</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tena</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>34.95</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>34.95/1ST</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>34.95</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
           <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
@@ -770,12 +770,12 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Tena Silhouette waschbarer Inko-Slip M 34.95 Schweizer Franken</t>
+          <t>Naturaline Damen Slip weiss M 30% Aktion 5.55 Schweizer Franken statt 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -828,7 +828,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -932,7 +932,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -985,7 +985,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -2042,7 +2042,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -2715,7 +2715,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -2768,7 +2768,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -2819,7 +2819,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -2870,7 +2870,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -2923,7 +2923,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -3178,7 +3178,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -3384,7 +3384,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -3590,7 +3590,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -3763,7 +3763,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -3814,7 +3814,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-30 07:13:04</t>
+          <t>2022-08-30 21:01:36</t>
         </is>
       </c>
     </row>
